--- a/GD/alpha_values_pos_1_to_101_MaxC_60000_Grad_0.000405_curve_fit.xlsx
+++ b/GD/alpha_values_pos_1_to_101_MaxC_60000_Grad_0.000405_curve_fit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26E63E-DDE2-4396-ACAA-13E6C299CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7D568-168D-4D47-A863-98840C3E884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="18675" windowHeight="15600" xr2:uid="{58FBA57D-38D8-4E62-817C-D5B515D45B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58FBA57D-38D8-4E62-817C-D5B515D45B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,1812 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curve_Fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2127.43111214495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7369.8015173228814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9156.3268996576699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9193.763875183904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8476.0907942294652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7535.2046438512516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6619.9475067959793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5819.090020697251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5141.5927935668278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4565.3321647531047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4063.5140544232963</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3616.2089192755084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3212.8220276088196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2849.8663830604455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2527.1306632817195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2244.2314975406407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998.6082857370893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1785.2595605565657</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1597.9326145539781</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1431.0627547017575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1281.5151085424895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1149.1103884004442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1035.0164231811104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>937.3595912439414</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>843.85453228969345</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>768.14530130516505</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>697.35948492103489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>636.05917021867936</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>582.78487813504762</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536.28180062767933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495.53040581691312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>459.7318988883344</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>428.26945272210287</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>400.66071348945843</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>376.51233464363031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.48319754147087</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>337.2595384355518</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.54241985807312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.04585931435577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>296.50245993686258</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>286.67257620234159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>278.35289269461646</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>271.38079583120998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265.63207728503039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>261.01132231621887</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>257.43680905541987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.82487295393366</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.08247581656906</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252.12116156873526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>251.91067912665312</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252.5143874399364</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253.85672310553491</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256.28192963544279</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.64450987614691</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>263.91459021251649</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>269.14640423376113</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>275.45018270146102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>282.96968607138842</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291.86632192227989</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>302.30971072800457</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314.47369465325028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>328.53614006750286</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344.6804452156648</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>363.09644830040634</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>383.97842416539788</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>407.51807251665741</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>433.89082229696214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>463.23442365042865</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>495.61964689474553</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>531.01399110257626</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>569.24057693872601</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>609.93591883126646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>652.51196797192097</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>696.12976376526058</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>738.36586499214172</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>781.97655582427979</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>820.53068566322327</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>853.79171681404114</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880.04462218284607</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>897.25913763046265</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>903.85160398483276</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>899.09513640403748</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>883.24020075798035</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>857.41490745544434</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>823.3806254863739</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>783.21406316757202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>738.98643684387207</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>692.49697685241699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>645.10769510269165</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>597.70592212677002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>550.80037117004395</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>504.72903823852539</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>459.92583346366882</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>417.15851664543152</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>377.60976433753967</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>342.62904644012451</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>312.93593049049377</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>286.99946737289429</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>258.26512217521667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>210.83639740943909</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113.15177369117737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DCD-495D-850F-C28F2401A12C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="622491584"/>
+        <c:axId val="44233600"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y_data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="2">
+                  <c:v>9164.6600056323514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9147.6925583873744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8564.71974292288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7486.8180880061454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6575.1644328230177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5858.0408172455891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5164.4924487784283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4572.0806517224082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4015.5528658250028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3625.9566037551931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3233.9794614479388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2842.5473288642497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2519.1055927008565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2255.6667674224705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1991.4789100179607</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1788.0575585603694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1598.219919308011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1428.3570034138461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1281.6432673763609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150.2309365013928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1036.8449867654324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>935.01745211854211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>844.51410355912958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>768.13274984721977</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>697.41695473571042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>636.00248197146254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>582.64965391211683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536.65898507927363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495.18418242735919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>459.88838470915192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>428.18839526949353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>400.67418496284398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>376.52244851828567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.61324336841074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>337.2023263962804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.34085093740805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.11025869671431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>296.69708227210117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>286.59730514349855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>278.30292352830912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>271.42585498869613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265.4902799957876</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>261.12752452922115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>257.4896609489133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.7759734406489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.03009163603519</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252.17491029993707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>251.89787083957856</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252.49025065092502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253.95045585685398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256.2233399593249</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.49151839401719</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264.03048111670125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>269.29350903128625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>275.46707946798216</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>282.84472378577107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291.65039459072074</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>302.37043231454214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314.60220933435261</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>328.74296025338435</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344.79657116908072</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>362.64223794324749</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>383.89190299528838</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>407.6189205404541</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>434.09310445041314</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>463.43798929280342</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>495.29929706331194</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>530.96386245608153</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>569.23663641620044</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>610.16695680634245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>652.34516873224379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>696.1647890733085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>738.48163659214026</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>781.50646162823728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>820.98266125330485</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>854.20517956651713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>879.47172618643663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>896.42702889444911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>905.10399704058295</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>899.49421131434565</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>882.09335832163345</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>857.55788564424563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>823.35879510341863</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>783.47096631355862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>739.24858856370031</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>692.91711079876677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>644.83123564958692</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>596.5775855938399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>550.28800337928078</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>505.79422672258551</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>461.73161586167834</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>416.20710506106155</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>376.0340442081943</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>342.76192974200893</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>314.11301903339489</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>286.90596800614372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>257.78791973217602</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>210.995388944257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DCD-495D-850F-C28F2401A12C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622491584"/>
+        <c:axId val="44233600"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="622491584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44233600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44233600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622491584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63726034-DE88-3321-2CA6-BC637600D63E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +2204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74B70-F56F-4638-8DE9-FB99CAFD34D7}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1521,6 +3329,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GD/alpha_values_pos_1_to_101_MaxC_60000_Grad_0.000405_curve_fit.xlsx
+++ b/GD/alpha_values_pos_1_to_101_MaxC_60000_Grad_0.000405_curve_fit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7D568-168D-4D47-A863-98840C3E884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C21439-486B-4DA8-AC34-285FCAB9C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58FBA57D-38D8-4E62-817C-D5B515D45B3C}"/>
+    <workbookView xWindow="5685" yWindow="2625" windowWidth="18675" windowHeight="12975" xr2:uid="{58FBA57D-38D8-4E62-817C-D5B515D45B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,307 +464,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2127.43111214495</c:v>
+                  <c:v>8008.8288756840811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7369.8015173228814</c:v>
+                  <c:v>8742.6846047128929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9156.3268996576699</c:v>
+                  <c:v>9164.6600056323514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9193.763875183904</c:v>
+                  <c:v>9147.6925583873744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8476.0907942294652</c:v>
+                  <c:v>8564.71974292288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7535.2046438512516</c:v>
+                  <c:v>7486.8180880061454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6619.9475067959793</c:v>
+                  <c:v>6575.1644328230177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5819.090020697251</c:v>
+                  <c:v>5858.0408172455891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5141.5927935668278</c:v>
+                  <c:v>5164.4924487784283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4565.3321647531047</c:v>
+                  <c:v>4572.0806517224082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4063.5140544232963</c:v>
+                  <c:v>4015.5528658250028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3616.2089192755084</c:v>
+                  <c:v>3625.9566037551931</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3212.8220276088196</c:v>
+                  <c:v>3233.9794614479388</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2849.8663830604455</c:v>
+                  <c:v>2842.5473288642497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2527.1306632817195</c:v>
+                  <c:v>2519.1055927008565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2244.2314975406407</c:v>
+                  <c:v>2255.6667674224705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1998.6082857370893</c:v>
+                  <c:v>1991.4789100179607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1785.2595605565657</c:v>
+                  <c:v>1788.0575585603694</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1597.9326145539781</c:v>
+                  <c:v>1598.219919308011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1431.0627547017575</c:v>
+                  <c:v>1428.3570034138461</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1281.5151085424895</c:v>
+                  <c:v>1281.6432673763609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1149.1103884004442</c:v>
+                  <c:v>1150.2309365013928</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1035.0164231811104</c:v>
+                  <c:v>1036.8449867654324</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>937.3595912439414</c:v>
+                  <c:v>935.01745211854211</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>843.85453228969345</c:v>
+                  <c:v>844.51410355912958</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>768.14530130516505</c:v>
+                  <c:v>768.13274984721977</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>697.35948492103489</c:v>
+                  <c:v>697.41695473571042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>636.05917021867936</c:v>
+                  <c:v>636.00248197146254</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>582.78487813504762</c:v>
+                  <c:v>582.64965391211683</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>536.28180062767933</c:v>
+                  <c:v>536.65898507927363</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>495.53040581691312</c:v>
+                  <c:v>495.18418242735919</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.7318988883344</c:v>
+                  <c:v>459.88838470915192</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>428.26945272210287</c:v>
+                  <c:v>428.18839526949353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>400.66071348945843</c:v>
+                  <c:v>400.67418496284398</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>376.51233464363031</c:v>
+                  <c:v>376.52244851828567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>355.48319754147087</c:v>
+                  <c:v>355.61324336841074</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>337.2595384355518</c:v>
+                  <c:v>337.2023263962804</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>321.54241985807312</c:v>
+                  <c:v>321.34085093740805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>308.04585931435577</c:v>
+                  <c:v>308.11025869671431</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>296.50245993686258</c:v>
+                  <c:v>296.69708227210117</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>286.67257620234159</c:v>
+                  <c:v>286.59730514349855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>278.35289269461646</c:v>
+                  <c:v>278.30292352830912</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>271.38079583120998</c:v>
+                  <c:v>271.42585498869613</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>265.63207728503039</c:v>
+                  <c:v>265.4902799957876</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>261.01132231621887</c:v>
+                  <c:v>261.12752452922115</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>257.43680905541987</c:v>
+                  <c:v>257.4896609489133</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>254.82487295393366</c:v>
+                  <c:v>254.7759734406489</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>253.08247581656906</c:v>
+                  <c:v>253.03009163603519</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>252.12116156873526</c:v>
+                  <c:v>252.17491029993707</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>251.91067912665312</c:v>
+                  <c:v>251.89787083957856</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>252.5143874399364</c:v>
+                  <c:v>252.49025065092502</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>253.85672310553491</c:v>
+                  <c:v>253.95045585685398</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>256.28192963544279</c:v>
+                  <c:v>256.2233399593249</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>259.64450987614691</c:v>
+                  <c:v>259.49151839401719</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>263.91459021251649</c:v>
+                  <c:v>264.03048111670125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>269.14640423376113</c:v>
+                  <c:v>269.29350903128625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>275.45018270146102</c:v>
+                  <c:v>275.46707946798216</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>282.96968607138842</c:v>
+                  <c:v>282.84472378577107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>291.86632192227989</c:v>
+                  <c:v>291.65039459072074</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>302.30971072800457</c:v>
+                  <c:v>302.37043231454214</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>314.47369465325028</c:v>
+                  <c:v>314.60220933435261</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>328.53614006750286</c:v>
+                  <c:v>328.74296025338435</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>344.6804452156648</c:v>
+                  <c:v>344.79657116908072</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>363.09644830040634</c:v>
+                  <c:v>362.64223794324749</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>383.97842416539788</c:v>
+                  <c:v>383.89190299528838</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>407.51807251665741</c:v>
+                  <c:v>407.6189205404541</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>433.89082229696214</c:v>
+                  <c:v>434.09310445041314</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>463.23442365042865</c:v>
+                  <c:v>463.43798929280342</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>495.61964689474553</c:v>
+                  <c:v>495.29929706331194</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>531.01399110257626</c:v>
+                  <c:v>530.96386245608153</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>569.24057693872601</c:v>
+                  <c:v>569.23663641620044</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>609.93591883126646</c:v>
+                  <c:v>610.16695680634245</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>652.51196797192097</c:v>
+                  <c:v>652.34516873224379</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>696.12976376526058</c:v>
+                  <c:v>696.1647890733085</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>738.36586499214172</c:v>
+                  <c:v>738.48163659214026</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>781.97655582427979</c:v>
+                  <c:v>781.50646162823728</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>820.53068566322327</c:v>
+                  <c:v>820.98266125330485</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>853.79171681404114</c:v>
+                  <c:v>854.20517956651713</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>880.04462218284607</c:v>
+                  <c:v>879.47172618643663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>897.25913763046265</c:v>
+                  <c:v>896.42702889444911</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>903.85160398483276</c:v>
+                  <c:v>905.10399704058295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>899.09513640403748</c:v>
+                  <c:v>899.49421131434565</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>883.24020075798035</c:v>
+                  <c:v>882.09335832163345</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>857.41490745544434</c:v>
+                  <c:v>857.55788564424563</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>823.3806254863739</c:v>
+                  <c:v>823.35879510341863</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>783.21406316757202</c:v>
+                  <c:v>783.47096631355862</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>738.98643684387207</c:v>
+                  <c:v>739.24858856370031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>692.49697685241699</c:v>
+                  <c:v>692.91711079876677</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>645.10769510269165</c:v>
+                  <c:v>644.83123564958692</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>597.70592212677002</c:v>
+                  <c:v>596.5775855938399</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>550.80037117004395</c:v>
+                  <c:v>550.28800337928078</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>504.72903823852539</c:v>
+                  <c:v>505.79422672258551</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>459.92583346366882</c:v>
+                  <c:v>461.73161586167834</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>417.15851664543152</c:v>
+                  <c:v>416.20710506106155</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>377.60976433753967</c:v>
+                  <c:v>376.0340442081943</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>342.62904644012451</c:v>
+                  <c:v>342.76192974200893</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>312.93593049049377</c:v>
+                  <c:v>314.11301903339489</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>286.99946737289429</c:v>
+                  <c:v>286.90596800614372</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>258.26512217521667</c:v>
+                  <c:v>257.78791973217602</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>210.83639740943909</c:v>
+                  <c:v>210.995388944257</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>113.15177369117737</c:v>
+                  <c:v>127.4436019763703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2127.43111214495</v>
+        <v>8008.8288756840811</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7369.8015173228814</v>
+        <v>8742.6846047128929</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>9164.6600056323514</v>
       </c>
       <c r="C4">
-        <v>9156.3268996576699</v>
+        <v>9164.6600056323514</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>9147.6925583873744</v>
       </c>
       <c r="C5">
-        <v>9193.763875183904</v>
+        <v>9147.6925583873744</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>8564.71974292288</v>
       </c>
       <c r="C6">
-        <v>8476.0907942294652</v>
+        <v>8564.71974292288</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>7486.8180880061454</v>
       </c>
       <c r="C7">
-        <v>7535.2046438512516</v>
+        <v>7486.8180880061454</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>6575.1644328230177</v>
       </c>
       <c r="C8">
-        <v>6619.9475067959793</v>
+        <v>6575.1644328230177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>5858.0408172455891</v>
       </c>
       <c r="C9">
-        <v>5819.090020697251</v>
+        <v>5858.0408172455891</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
         <v>5164.4924487784283</v>
       </c>
       <c r="C10">
-        <v>5141.5927935668278</v>
+        <v>5164.4924487784283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>4572.0806517224082</v>
       </c>
       <c r="C11">
-        <v>4565.3321647531047</v>
+        <v>4572.0806517224082</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>4015.5528658250028</v>
       </c>
       <c r="C12">
-        <v>4063.5140544232963</v>
+        <v>4015.5528658250028</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>3625.9566037551931</v>
       </c>
       <c r="C13">
-        <v>3616.2089192755084</v>
+        <v>3625.9566037551931</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>3233.9794614479388</v>
       </c>
       <c r="C14">
-        <v>3212.8220276088196</v>
+        <v>3233.9794614479388</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>2842.5473288642497</v>
       </c>
       <c r="C15">
-        <v>2849.8663830604455</v>
+        <v>2842.5473288642497</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>2519.1055927008565</v>
       </c>
       <c r="C16">
-        <v>2527.1306632817195</v>
+        <v>2519.1055927008565</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>2255.6667674224705</v>
       </c>
       <c r="C17">
-        <v>2244.2314975406407</v>
+        <v>2255.6667674224705</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>1991.4789100179607</v>
       </c>
       <c r="C18">
-        <v>1998.6082857370893</v>
+        <v>1991.4789100179607</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>1788.0575585603694</v>
       </c>
       <c r="C19">
-        <v>1785.2595605565657</v>
+        <v>1788.0575585603694</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1598.219919308011</v>
       </c>
       <c r="C20">
-        <v>1597.9326145539781</v>
+        <v>1598.219919308011</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>1428.3570034138461</v>
       </c>
       <c r="C21">
-        <v>1431.0627547017575</v>
+        <v>1428.3570034138461</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>1281.6432673763609</v>
       </c>
       <c r="C22">
-        <v>1281.5151085424895</v>
+        <v>1281.6432673763609</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>1150.2309365013928</v>
       </c>
       <c r="C23">
-        <v>1149.1103884004442</v>
+        <v>1150.2309365013928</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>1036.8449867654324</v>
       </c>
       <c r="C24">
-        <v>1035.0164231811104</v>
+        <v>1036.8449867654324</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>935.01745211854211</v>
       </c>
       <c r="C25">
-        <v>937.3595912439414</v>
+        <v>935.01745211854211</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>844.51410355912958</v>
       </c>
       <c r="C26">
-        <v>843.85453228969345</v>
+        <v>844.51410355912958</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>768.13274984721977</v>
       </c>
       <c r="C27">
-        <v>768.14530130516505</v>
+        <v>768.13274984721977</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>697.41695473571042</v>
       </c>
       <c r="C28">
-        <v>697.35948492103489</v>
+        <v>697.41695473571042</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>636.00248197146254</v>
       </c>
       <c r="C29">
-        <v>636.05917021867936</v>
+        <v>636.00248197146254</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>582.64965391211683</v>
       </c>
       <c r="C30">
-        <v>582.78487813504762</v>
+        <v>582.64965391211683</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>536.65898507927363</v>
       </c>
       <c r="C31">
-        <v>536.28180062767933</v>
+        <v>536.65898507927363</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>495.18418242735919</v>
       </c>
       <c r="C32">
-        <v>495.53040581691312</v>
+        <v>495.18418242735919</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>459.88838470915192</v>
       </c>
       <c r="C33">
-        <v>459.7318988883344</v>
+        <v>459.88838470915192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>428.18839526949353</v>
       </c>
       <c r="C34">
-        <v>428.26945272210287</v>
+        <v>428.18839526949353</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>400.67418496284398</v>
       </c>
       <c r="C35">
-        <v>400.66071348945843</v>
+        <v>400.67418496284398</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
         <v>376.52244851828567</v>
       </c>
       <c r="C36">
-        <v>376.51233464363031</v>
+        <v>376.52244851828567</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>355.61324336841074</v>
       </c>
       <c r="C37">
-        <v>355.48319754147087</v>
+        <v>355.61324336841074</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>337.2023263962804</v>
       </c>
       <c r="C38">
-        <v>337.2595384355518</v>
+        <v>337.2023263962804</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>321.34085093740805</v>
       </c>
       <c r="C39">
-        <v>321.54241985807312</v>
+        <v>321.34085093740805</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>308.11025869671431</v>
       </c>
       <c r="C40">
-        <v>308.04585931435577</v>
+        <v>308.11025869671431</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>296.69708227210117</v>
       </c>
       <c r="C41">
-        <v>296.50245993686258</v>
+        <v>296.69708227210117</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>286.59730514349855</v>
       </c>
       <c r="C42">
-        <v>286.67257620234159</v>
+        <v>286.59730514349855</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>278.30292352830912</v>
       </c>
       <c r="C43">
-        <v>278.35289269461646</v>
+        <v>278.30292352830912</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>271.42585498869613</v>
       </c>
       <c r="C44">
-        <v>271.38079583120998</v>
+        <v>271.42585498869613</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>265.4902799957876</v>
       </c>
       <c r="C45">
-        <v>265.63207728503039</v>
+        <v>265.4902799957876</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>261.12752452922115</v>
       </c>
       <c r="C46">
-        <v>261.01132231621887</v>
+        <v>261.12752452922115</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>257.4896609489133</v>
       </c>
       <c r="C47">
-        <v>257.43680905541987</v>
+        <v>257.4896609489133</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>254.7759734406489</v>
       </c>
       <c r="C48">
-        <v>254.82487295393366</v>
+        <v>254.7759734406489</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>253.03009163603519</v>
       </c>
       <c r="C49">
-        <v>253.08247581656906</v>
+        <v>253.03009163603519</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>252.17491029993707</v>
       </c>
       <c r="C50">
-        <v>252.12116156873526</v>
+        <v>252.17491029993707</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>251.89787083957856</v>
       </c>
       <c r="C51">
-        <v>251.91067912665312</v>
+        <v>251.89787083957856</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>252.49025065092502</v>
       </c>
       <c r="C52">
-        <v>252.5143874399364</v>
+        <v>252.49025065092502</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>253.95045585685398</v>
       </c>
       <c r="C53">
-        <v>253.85672310553491</v>
+        <v>253.95045585685398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>256.2233399593249</v>
       </c>
       <c r="C54">
-        <v>256.28192963544279</v>
+        <v>256.2233399593249</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>259.49151839401719</v>
       </c>
       <c r="C55">
-        <v>259.64450987614691</v>
+        <v>259.49151839401719</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>264.03048111670125</v>
       </c>
       <c r="C56">
-        <v>263.91459021251649</v>
+        <v>264.03048111670125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>269.29350903128625</v>
       </c>
       <c r="C57">
-        <v>269.14640423376113</v>
+        <v>269.29350903128625</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,7 +2843,7 @@
         <v>275.46707946798216</v>
       </c>
       <c r="C58">
-        <v>275.45018270146102</v>
+        <v>275.46707946798216</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>282.84472378577107</v>
       </c>
       <c r="C59">
-        <v>282.96968607138842</v>
+        <v>282.84472378577107</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>291.65039459072074</v>
       </c>
       <c r="C60">
-        <v>291.86632192227989</v>
+        <v>291.65039459072074</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>302.37043231454214</v>
       </c>
       <c r="C61">
-        <v>302.30971072800457</v>
+        <v>302.37043231454214</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>314.60220933435261</v>
       </c>
       <c r="C62">
-        <v>314.47369465325028</v>
+        <v>314.60220933435261</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>328.74296025338435</v>
       </c>
       <c r="C63">
-        <v>328.53614006750286</v>
+        <v>328.74296025338435</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>344.79657116908072</v>
       </c>
       <c r="C64">
-        <v>344.6804452156648</v>
+        <v>344.79657116908072</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>362.64223794324749</v>
       </c>
       <c r="C65">
-        <v>363.09644830040634</v>
+        <v>362.64223794324749</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>383.89190299528838</v>
       </c>
       <c r="C66">
-        <v>383.97842416539788</v>
+        <v>383.89190299528838</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>407.6189205404541</v>
       </c>
       <c r="C67">
-        <v>407.51807251665741</v>
+        <v>407.6189205404541</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>434.09310445041314</v>
       </c>
       <c r="C68">
-        <v>433.89082229696214</v>
+        <v>434.09310445041314</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>463.43798929280342</v>
       </c>
       <c r="C69">
-        <v>463.23442365042865</v>
+        <v>463.43798929280342</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>495.29929706331194</v>
       </c>
       <c r="C70">
-        <v>495.61964689474553</v>
+        <v>495.29929706331194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>530.96386245608153</v>
       </c>
       <c r="C71">
-        <v>531.01399110257626</v>
+        <v>530.96386245608153</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>569.23663641620044</v>
       </c>
       <c r="C72">
-        <v>569.24057693872601</v>
+        <v>569.23663641620044</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>610.16695680634245</v>
       </c>
       <c r="C73">
-        <v>609.93591883126646</v>
+        <v>610.16695680634245</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>652.34516873224379</v>
       </c>
       <c r="C74">
-        <v>652.51196797192097</v>
+        <v>652.34516873224379</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>696.1647890733085</v>
       </c>
       <c r="C75">
-        <v>696.12976376526058</v>
+        <v>696.1647890733085</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>738.48163659214026</v>
       </c>
       <c r="C76">
-        <v>738.36586499214172</v>
+        <v>738.48163659214026</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>781.50646162823728</v>
       </c>
       <c r="C77">
-        <v>781.97655582427979</v>
+        <v>781.50646162823728</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>820.98266125330485</v>
       </c>
       <c r="C78">
-        <v>820.53068566322327</v>
+        <v>820.98266125330485</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>854.20517956651713</v>
       </c>
       <c r="C79">
-        <v>853.79171681404114</v>
+        <v>854.20517956651713</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>879.47172618643663</v>
       </c>
       <c r="C80">
-        <v>880.04462218284607</v>
+        <v>879.47172618643663</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>896.42702889444911</v>
       </c>
       <c r="C81">
-        <v>897.25913763046265</v>
+        <v>896.42702889444911</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>905.10399704058295</v>
       </c>
       <c r="C82">
-        <v>903.85160398483276</v>
+        <v>905.10399704058295</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>899.49421131434565</v>
       </c>
       <c r="C83">
-        <v>899.09513640403748</v>
+        <v>899.49421131434565</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>882.09335832163345</v>
       </c>
       <c r="C84">
-        <v>883.24020075798035</v>
+        <v>882.09335832163345</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>857.55788564424563</v>
       </c>
       <c r="C85">
-        <v>857.41490745544434</v>
+        <v>857.55788564424563</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>823.35879510341863</v>
       </c>
       <c r="C86">
-        <v>823.3806254863739</v>
+        <v>823.35879510341863</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>783.47096631355862</v>
       </c>
       <c r="C87">
-        <v>783.21406316757202</v>
+        <v>783.47096631355862</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>739.24858856370031</v>
       </c>
       <c r="C88">
-        <v>738.98643684387207</v>
+        <v>739.24858856370031</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>692.91711079876677</v>
       </c>
       <c r="C89">
-        <v>692.49697685241699</v>
+        <v>692.91711079876677</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>644.83123564958692</v>
       </c>
       <c r="C90">
-        <v>645.10769510269165</v>
+        <v>644.83123564958692</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>596.5775855938399</v>
       </c>
       <c r="C91">
-        <v>597.70592212677002</v>
+        <v>596.5775855938399</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>550.28800337928078</v>
       </c>
       <c r="C92">
-        <v>550.80037117004395</v>
+        <v>550.28800337928078</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>505.79422672258551</v>
       </c>
       <c r="C93">
-        <v>504.72903823852539</v>
+        <v>505.79422672258551</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>461.73161586167834</v>
       </c>
       <c r="C94">
-        <v>459.92583346366882</v>
+        <v>461.73161586167834</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>416.20710506106155</v>
       </c>
       <c r="C95">
-        <v>417.15851664543152</v>
+        <v>416.20710506106155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>376.0340442081943</v>
       </c>
       <c r="C96">
-        <v>377.60976433753967</v>
+        <v>376.0340442081943</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>342.76192974200893</v>
       </c>
       <c r="C97">
-        <v>342.62904644012451</v>
+        <v>342.76192974200893</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>314.11301903339489</v>
       </c>
       <c r="C98">
-        <v>312.93593049049377</v>
+        <v>314.11301903339489</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>286.90596800614372</v>
       </c>
       <c r="C99">
-        <v>286.99946737289429</v>
+        <v>286.90596800614372</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>257.78791973217602</v>
       </c>
       <c r="C100">
-        <v>258.26512217521667</v>
+        <v>257.78791973217602</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>210.995388944257</v>
       </c>
       <c r="C101">
-        <v>210.83639740943909</v>
+        <v>210.995388944257</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>113.15177369117737</v>
+        <v>127.4436019763703</v>
       </c>
     </row>
   </sheetData>
